--- a/Heroes of Kocmocraft HD/Assets/___iLYuSha_Mod/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Heroes of Kocmocraft HD/Assets/___iLYuSha_Mod/Wakaka Kocmocraft/Balance Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Heroes of Kocmocraft\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dubi-Story\Heroes of Kocmocraft HD\Assets\___iLYuSha_Mod\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD67FF9-0FDE-4C9D-BACB-F1841C1A153D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34FFE4-0B54-41C9-98DA-ECFB2F4F16D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="105" windowWidth="28770" windowHeight="15465" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="宇航機中英文名" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="209">
   <si>
     <t>巨型宇航机</t>
   </si>
@@ -608,6 +609,242 @@
   </si>
   <si>
     <t>动力系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>機型編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搗蛋財神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Bill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Soda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮彈比爾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮彈汽水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛空飛魚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化骨魚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>優樂多特快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北極星特快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polaris Express</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yogurt Express</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普鯨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱爾鯨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕雞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠱燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gu Progne</t>
+  </si>
+  <si>
+    <t>Cuckoo</t>
+  </si>
+  <si>
+    <t>Fossil Fish</t>
+  </si>
+  <si>
+    <t>Void Fish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Carpet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>時光機</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>時光飛毯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyccknn Ceti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kells Ceti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedBull Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔爪能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅牛能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神偷機兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Despicable Mech</t>
+  </si>
+  <si>
+    <t>Evil Mech</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪惡機兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>異色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃紅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫銀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白黃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅橘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白紅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡藍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>養樂多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熒光綠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫黑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白黑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘紅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,6 +1420,18 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,14 +1450,8 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1542,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
   <dimension ref="A1:BX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1708,30 +1951,30 @@
       <c r="AD1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="70" t="s">
+      <c r="AE1" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72" t="s">
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="68" t="s">
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="70" t="s">
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="74" t="s">
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="68" t="s">
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AP1" s="69"/>
+      <c r="AP1" s="73"/>
       <c r="AQ1" s="36"/>
       <c r="AR1" s="2" t="s">
         <v>68</v>
@@ -1740,39 +1983,39 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AW1" s="36"/>
-      <c r="AX1" s="74" t="s">
+      <c r="AX1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="76" t="s">
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="74" t="s">
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="76" t="s">
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76" t="s">
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76" t="s">
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76" t="s">
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
       <c r="BQ1" s="11" t="s">
         <v>62</v>
       </c>
@@ -2539,30 +2782,30 @@
       <c r="AD5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE5" s="70" t="s">
+      <c r="AE5" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="72" t="s">
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="68" t="s">
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="70" t="s">
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="74" t="s">
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="68" t="s">
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AP5" s="69"/>
+      <c r="AP5" s="73"/>
       <c r="AQ5" s="36"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -2578,39 +2821,39 @@
         <v>11400</v>
       </c>
       <c r="AW5" s="36"/>
-      <c r="AX5" s="74" t="s">
+      <c r="AX5" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="76" t="s">
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="74" t="s">
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="76" t="s">
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="BF5" s="76"/>
-      <c r="BG5" s="76"/>
-      <c r="BH5" s="76" t="s">
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="BI5" s="76"/>
-      <c r="BJ5" s="76"/>
-      <c r="BK5" s="76" t="s">
+      <c r="BI5" s="69"/>
+      <c r="BJ5" s="69"/>
+      <c r="BK5" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="BL5" s="76"/>
-      <c r="BM5" s="76"/>
-      <c r="BN5" s="76" t="s">
+      <c r="BL5" s="69"/>
+      <c r="BM5" s="69"/>
+      <c r="BN5" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="BO5" s="76"/>
-      <c r="BP5" s="76"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
       <c r="BQ5" s="11" t="s">
         <v>62</v>
       </c>
@@ -4013,30 +4256,30 @@
       <c r="AD12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE12" s="70" t="s">
+      <c r="AE12" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="72" t="s">
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="68" t="s">
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="70" t="s">
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="74" t="s">
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="68" t="s">
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AP12" s="69"/>
+      <c r="AP12" s="73"/>
       <c r="AQ12" s="36"/>
       <c r="AR12" s="2" t="s">
         <v>129</v>
@@ -4053,39 +4296,39 @@
       <c r="AW12" s="46">
         <v>2900</v>
       </c>
-      <c r="AX12" s="74" t="s">
+      <c r="AX12" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="76" t="s">
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="74" t="s">
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="BD12" s="75"/>
-      <c r="BE12" s="76" t="s">
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="76" t="s">
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="76"/>
-      <c r="BK12" s="76" t="s">
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="BL12" s="76"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76" t="s">
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="BO12" s="76"/>
-      <c r="BP12" s="76"/>
+      <c r="BO12" s="69"/>
+      <c r="BP12" s="69"/>
       <c r="BQ12" s="11" t="s">
         <v>62</v>
       </c>
@@ -5083,30 +5326,30 @@
       <c r="AD17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE17" s="70" t="s">
+      <c r="AE17" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="72" t="s">
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="68" t="s">
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="70" t="s">
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="74" t="s">
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="68" t="s">
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AP17" s="69"/>
+      <c r="AP17" s="73"/>
       <c r="AQ17" s="36"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
@@ -5124,39 +5367,39 @@
       <c r="AW17" s="50">
         <v>9750</v>
       </c>
-      <c r="AX17" s="74" t="s">
+      <c r="AX17" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AY17" s="75"/>
-      <c r="AZ17" s="76" t="s">
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BA17" s="76"/>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="74" t="s">
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="BD17" s="75"/>
-      <c r="BE17" s="76" t="s">
+      <c r="BD17" s="71"/>
+      <c r="BE17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="BF17" s="76"/>
-      <c r="BG17" s="76"/>
-      <c r="BH17" s="76" t="s">
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="BI17" s="76"/>
-      <c r="BJ17" s="76"/>
-      <c r="BK17" s="76" t="s">
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="BL17" s="76"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="76" t="s">
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="69"/>
+      <c r="BN17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="BO17" s="76"/>
-      <c r="BP17" s="76"/>
+      <c r="BO17" s="69"/>
+      <c r="BP17" s="69"/>
       <c r="BQ17" s="11" t="s">
         <v>62</v>
       </c>
@@ -6114,30 +6357,30 @@
       <c r="AD22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE22" s="70" t="s">
+      <c r="AE22" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="72" t="s">
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="68" t="s">
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="70" t="s">
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="74" t="s">
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="68" t="s">
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AP22" s="69"/>
+      <c r="AP22" s="73"/>
       <c r="AQ22" s="36"/>
       <c r="AR22" s="2" t="s">
         <v>129</v>
@@ -6152,39 +6395,39 @@
         <v>116</v>
       </c>
       <c r="AW22" s="36"/>
-      <c r="AX22" s="74" t="s">
+      <c r="AX22" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AY22" s="75"/>
-      <c r="AZ22" s="76" t="s">
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BA22" s="76"/>
-      <c r="BB22" s="76"/>
-      <c r="BC22" s="74" t="s">
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="BD22" s="75"/>
-      <c r="BE22" s="76" t="s">
+      <c r="BD22" s="71"/>
+      <c r="BE22" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="BF22" s="76"/>
-      <c r="BG22" s="76"/>
-      <c r="BH22" s="76" t="s">
+      <c r="BF22" s="69"/>
+      <c r="BG22" s="69"/>
+      <c r="BH22" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="BI22" s="76"/>
-      <c r="BJ22" s="76"/>
-      <c r="BK22" s="76" t="s">
+      <c r="BI22" s="69"/>
+      <c r="BJ22" s="69"/>
+      <c r="BK22" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="BL22" s="76"/>
-      <c r="BM22" s="76"/>
-      <c r="BN22" s="76" t="s">
+      <c r="BL22" s="69"/>
+      <c r="BM22" s="69"/>
+      <c r="BN22" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="BO22" s="76"/>
-      <c r="BP22" s="76"/>
+      <c r="BO22" s="69"/>
+      <c r="BP22" s="69"/>
       <c r="BQ22" s="11" t="s">
         <v>62</v>
       </c>
@@ -6908,30 +7151,30 @@
       <c r="AD26" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AE26" s="70" t="s">
+      <c r="AE26" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="72" t="s">
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="68" t="s">
+      <c r="AH26" s="77"/>
+      <c r="AI26" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="70" t="s">
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="74" t="s">
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="68" t="s">
+      <c r="AN26" s="71"/>
+      <c r="AO26" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="69"/>
+      <c r="AP26" s="73"/>
       <c r="AQ26" s="29"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
@@ -7157,27 +7400,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="BE22:BG22"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="BN22:BP22"/>
-    <mergeCell ref="BE17:BG17"/>
-    <mergeCell ref="BH17:BJ17"/>
-    <mergeCell ref="BK17:BM17"/>
-    <mergeCell ref="BN17:BP17"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="BH12:BJ12"/>
-    <mergeCell ref="BK12:BM12"/>
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BM5"/>
-    <mergeCell ref="BN5:BP5"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AO22:AP22"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AO26:AP26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BC12:BD12"/>
@@ -7194,40 +7450,27 @@
     <mergeCell ref="AX17:AY17"/>
     <mergeCell ref="AX22:AY22"/>
     <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AO17:AP17"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AO22:AP22"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AO26:AP26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="BH12:BJ12"/>
+    <mergeCell ref="BK12:BM12"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BN5:BP5"/>
+    <mergeCell ref="BE22:BG22"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BE17:BG17"/>
+    <mergeCell ref="BH17:BJ17"/>
+    <mergeCell ref="BK17:BM17"/>
+    <mergeCell ref="BN17:BP17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7239,8 +7482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B084DFE-5D44-4589-8EAD-A629E8E88541}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="H36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:R57"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H36" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9160,4 +9403,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605EEA14-8FB6-4294-A34E-ACEE39D51DD1}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="26"/>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="27"/>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="27"/>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="24"/>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="27"/>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="28"/>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="24"/>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>14</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="25"/>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>15</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>16</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>17</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>